--- a/biology/Médecine/Carl_Djerassi/Carl_Djerassi.xlsx
+++ b/biology/Médecine/Carl_Djerassi/Carl_Djerassi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carl Djerassi, né le 29 octobre 1923 à Vienne, Autriche, et mort le 30 janvier 2015[1] à San Francisco, est un chimiste, romancier, dramaturge, collectionneur d'art surtout connu pour son apport à la conception de la première pilule contraceptive. Il a en effet participé, avec Luis E. Miramontes et George Rosenkranz, à l'invention en 1951 de la noréthistérone, un progestatif de synthèse, à partir de laquelle Gregory Pincus et John Rock feront le premier contraceptif oral.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carl Djerassi, né le 29 octobre 1923 à Vienne, Autriche, et mort le 30 janvier 2015 à San Francisco, est un chimiste, romancier, dramaturge, collectionneur d'art surtout connu pour son apport à la conception de la première pilule contraceptive. Il a en effet participé, avec Luis E. Miramontes et George Rosenkranz, à l'invention en 1951 de la noréthistérone, un progestatif de synthèse, à partir de laquelle Gregory Pincus et John Rock feront le premier contraceptif oral.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né le 29 octobre 1923 à Vienne, il est le fils d'Alice Friedmann, médecin et dentiste juive viennoise et de Samuel Djerassi, médecin juif séfarade bulgare.
 L'entrée triomphale d'Adolf Hitler à Vienne, en mars 1938, précipite sa famille vers l'exil. Séparés depuis des années, les parents de Djerassi se remarient à la hâte afin de pouvoir se réfugier à Sofia, en Bulgarie. Ce sera la dernière étape avant l'émigration de la mère et du fils aux États-Unis.
@@ -551,18 +565,16 @@
           <t>Œuvre littéraire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Carl Djerassi cultive un genre littéraire qu'il a appelé « science-in-fiction », puis « science-in-theatre », la scène lui apparaissant comme un vecteur mieux adapté à son projet de faire réfléchir en amusant.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carl Djerassi cultive un genre littéraire qu'il a appelé « science-in-fiction », puis « science-in-theatre », la scène lui apparaissant comme un vecteur mieux adapté à son projet de faire réfléchir en amusant.
 Sa première pièce, An Immaculate Misconception ("Une immaculée Conception erronée"), est vouée aux techniques d'insémination artificielle.
 À l'occasion du centenaire du prix Nobel, en 2001, le chercheur-écrivain imagine dans Oxygène (Toulouse PU Mirail) – avec le Nobel de chimie Roald Hoffmann – que l'Académie royale suédoise des sciences décide d'attribuer un « Nobel rétroactif » à celui qui a découvert ce gaz. Sauf que le candidat évident, le Français Antoine Lavoisier, n'est pas seul en lice...
 Dans Calculus ("Calcul"), il montre comment Isaac Newton manipule la Société royale des sciences, dans l'Angleterre du XVIIe siècle, afin de s'assurer de sa suprématie sur son rival Gottfried Leibniz dans le développement du calcul différentiel.
-Sa huitième pièce de théâtre, Foreplay (Préliminaires), un texte édité en 2011 en anglais[2], en allemand et en espagnol. Il s'agit d'une fiction sur "l'adultère émotionnel et intellectuel" qu'aurait noué sous forme épistolaire Gretel Adorno – chimiste de formation, épouse dévouée du chef de file de l'école philosophique de Francfort, Theodor Adorno – avec l'écrivain Walter Benjamin, qui se suicida en 1940, alors qu'il fuyait les nazis.
-Ouvrages traduits en français
-Djerassi : De la chimie des hormones à la pilule, de Carl Djerassi, éd. Belin, coll. Un savant, une époque, 1995, 415 p. Paru en anglais sous le titre : The Pill, Pygmy chimps and Degas' horse, BasicBooks, 1992)
-Biologie moderne &amp; visions de l'humanité, d'Axel Kahn, Evandro Agazzi, Gilbert Hottois et Carl Djerassi, éd. De Boeck, 2004, 230 p.
-Oxygène, de Carl Djerassi, Roald Hoffmann, Bernadette Bensaude-Vincent et Jean-Michel Kornprobst, éd. Toulouse PU Mirail, coll. Interlangues - Civilisations, 2004, 150 p.
-Le Dilemme de cantor, de Carl Djerassi, éd. Balland, 1992</t>
+Sa huitième pièce de théâtre, Foreplay (Préliminaires), un texte édité en 2011 en anglais, en allemand et en espagnol. Il s'agit d'une fiction sur "l'adultère émotionnel et intellectuel" qu'aurait noué sous forme épistolaire Gretel Adorno – chimiste de formation, épouse dévouée du chef de file de l'école philosophique de Francfort, Theodor Adorno – avec l'écrivain Walter Benjamin, qui se suicida en 1940, alors qu'il fuyait les nazis.
+</t>
         </is>
       </c>
     </row>
@@ -587,10 +599,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvre littéraire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ouvrages traduits en français</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Djerassi : De la chimie des hormones à la pilule, de Carl Djerassi, éd. Belin, coll. Un savant, une époque, 1995, 415 p. Paru en anglais sous le titre : The Pill, Pygmy chimps and Degas' horse, BasicBooks, 1992)
+Biologie moderne &amp; visions de l'humanité, d'Axel Kahn, Evandro Agazzi, Gilbert Hottois et Carl Djerassi, éd. De Boeck, 2004, 230 p.
+Oxygène, de Carl Djerassi, Roald Hoffmann, Bernadette Bensaude-Vincent et Jean-Michel Kornprobst, éd. Toulouse PU Mirail, coll. Interlangues - Civilisations, 2004, 150 p.
+Le Dilemme de cantor, de Carl Djerassi, éd. Balland, 1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Carl_Djerassi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carl_Djerassi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Distinctions et récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1958 : ACS Award in Pure Chemistry
 1960 : prix Ernest-Guenther
@@ -605,31 +658,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Carl_Djerassi</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Carl_Djerassi</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>« Carl Djerassi : une vie au nom des femmes », Le Monde Magazine, 16 septembre 2011</t>
         </is>
